--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -412,6 +412,9 @@
   <si>
     <t xml:space="preserve">1.3400000333786</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.32000005245209</t>
+  </si>
 </sst>
 </file>
 
@@ -17052,6 +17055,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>45446.2916666667</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.3400000333786</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.3400000333786</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1.3400000333786</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1.3400000333786</v>
+      </c>
+      <c r="G628" t="s">
+        <v>132</v>
+      </c>
+      <c r="H628" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>45447.3215277778</v>
+      </c>
+      <c r="B629" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G629" t="s">
+        <v>133</v>
+      </c>
+      <c r="H629" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17083,7 +17083,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>45447.3215277778</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B629" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17107,6 +17107,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G630" t="s">
+        <v>133</v>
+      </c>
+      <c r="H630" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17133,6 +17133,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G631" t="s">
+        <v>133</v>
+      </c>
+      <c r="H631" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17159,6 +17159,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G632" t="s">
+        <v>133</v>
+      </c>
+      <c r="H632" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17185,6 +17185,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G633" t="s">
+        <v>133</v>
+      </c>
+      <c r="H633" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17211,6 +17211,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G634" t="s">
+        <v>133</v>
+      </c>
+      <c r="H634" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G635" t="s">
+        <v>133</v>
+      </c>
+      <c r="H635" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -415,6 +415,9 @@
   <si>
     <t xml:space="preserve">1.32000005245209</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.29999995231628</t>
+  </si>
 </sst>
 </file>
 
@@ -17263,6 +17266,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G636" t="s">
+        <v>133</v>
+      </c>
+      <c r="H636" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>45457.6275347222</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G637" t="s">
+        <v>134</v>
+      </c>
+      <c r="H637" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17294,7 +17294,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>45457.6275347222</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B637" t="n">
         <v>1000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17318,6 +17318,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G638" t="s">
+        <v>134</v>
+      </c>
+      <c r="H638" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>45461.6496180556</v>
+      </c>
+      <c r="B639" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G639" t="s">
+        <v>134</v>
+      </c>
+      <c r="H639" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17346,7 +17346,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>45461.6496180556</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B639" t="n">
         <v>4000</v>
@@ -17355,7 +17355,7 @@
         <v>1.33000004291534</v>
       </c>
       <c r="D639" t="n">
-        <v>1.33000004291534</v>
+        <v>1.29999995231628</v>
       </c>
       <c r="E639" t="n">
         <v>1.33000004291534</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -418,6 +418,9 @@
   <si>
     <t xml:space="preserve">1.29999995231628</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.33000004291534</t>
+  </si>
 </sst>
 </file>
 
@@ -17370,6 +17373,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G640" t="s">
+        <v>134</v>
+      </c>
+      <c r="H640" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>45463.5041435185</v>
+      </c>
+      <c r="B641" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="G641" t="s">
+        <v>135</v>
+      </c>
+      <c r="H641" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17401,7 +17401,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>45463.5041435185</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B641" t="n">
         <v>4000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -421,6 +421,9 @@
   <si>
     <t xml:space="preserve">1.33000004291534</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.37000000476837</t>
+  </si>
 </sst>
 </file>
 
@@ -17425,6 +17428,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1.33000004291534</v>
+      </c>
+      <c r="G642" t="s">
+        <v>135</v>
+      </c>
+      <c r="H642" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>45467.4946527778</v>
+      </c>
+      <c r="B643" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G643" t="s">
+        <v>136</v>
+      </c>
+      <c r="H643" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17456,7 +17456,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>45467.4946527778</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B643" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -424,6 +424,9 @@
   <si>
     <t xml:space="preserve">1.37000000476837</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.47000002861023</t>
+  </si>
 </sst>
 </file>
 
@@ -17480,6 +17483,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G644" t="s">
+        <v>136</v>
+      </c>
+      <c r="H644" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>45469.6313773148</v>
+      </c>
+      <c r="B645" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1.52999997138977</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1.47000002861023</v>
+      </c>
+      <c r="G645" t="s">
+        <v>137</v>
+      </c>
+      <c r="H645" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -427,6 +427,9 @@
   <si>
     <t xml:space="preserve">1.47000002861023</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.39999997615814</t>
+  </si>
 </sst>
 </file>
 
@@ -17511,7 +17514,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>45469.6313773148</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B645" t="n">
         <v>13000</v>
@@ -17532,6 +17535,32 @@
         <v>137</v>
       </c>
       <c r="H645" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>45470.6494097222</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1.48000001907349</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1.44000005722046</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1.48000001907349</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G646" t="s">
+        <v>138</v>
+      </c>
+      <c r="H646" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17540,7 +17540,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>45470.6494097222</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B646" t="n">
         <v>3000</v>
@@ -17549,7 +17549,7 @@
         <v>1.48000001907349</v>
       </c>
       <c r="D646" t="n">
-        <v>1.44000005722046</v>
+        <v>1.39999997615814</v>
       </c>
       <c r="E646" t="n">
         <v>1.48000001907349</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17564,6 +17564,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>45471.2916666667</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G647" t="s">
+        <v>138</v>
+      </c>
+      <c r="H647" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>45474.5621412037</v>
+      </c>
+      <c r="B648" t="n">
+        <v>500</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="G648" t="s">
+        <v>131</v>
+      </c>
+      <c r="H648" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17592,7 +17592,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>45474.5621412037</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B648" t="n">
         <v>500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17616,6 +17616,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="G649" t="s">
+        <v>131</v>
+      </c>
+      <c r="H649" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17642,6 +17642,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="G650" t="s">
+        <v>131</v>
+      </c>
+      <c r="H650" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17668,6 +17668,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0</v>
+      </c>
+      <c r="C651" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1.37999999523163</v>
+      </c>
+      <c r="G651" t="s">
+        <v>131</v>
+      </c>
+      <c r="H651" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>45478.5994212963</v>
+      </c>
+      <c r="B652" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G652" t="s">
+        <v>136</v>
+      </c>
+      <c r="H652" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17696,7 +17696,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>45478.5994212963</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B652" t="n">
         <v>3000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17720,6 +17720,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>45481.2916666667</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G653" t="s">
+        <v>136</v>
+      </c>
+      <c r="H653" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17746,6 +17746,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>45482.2916666667</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G654" t="s">
+        <v>136</v>
+      </c>
+      <c r="H654" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17772,6 +17772,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G655" t="s">
+        <v>136</v>
+      </c>
+      <c r="H655" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17798,6 +17798,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>45484.2916666667</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G656" t="s">
+        <v>136</v>
+      </c>
+      <c r="H656" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17824,6 +17824,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G657" t="s">
+        <v>136</v>
+      </c>
+      <c r="H657" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17850,6 +17850,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G658" t="s">
+        <v>136</v>
+      </c>
+      <c r="H658" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17876,6 +17876,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>45489.2916666667</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1.37000000476837</v>
+      </c>
+      <c r="G659" t="s">
+        <v>136</v>
+      </c>
+      <c r="H659" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>45490.6494791667</v>
+      </c>
+      <c r="B660" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G660" t="s">
+        <v>134</v>
+      </c>
+      <c r="H660" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17904,7 +17904,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>45490.6494791667</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B660" t="n">
         <v>2500</v>
@@ -17913,7 +17913,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="D660" t="n">
-        <v>1.35000002384186</v>
+        <v>1.29999995231628</v>
       </c>
       <c r="E660" t="n">
         <v>1.35000002384186</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17928,6 +17928,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G661" t="s">
+        <v>134</v>
+      </c>
+      <c r="H661" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17954,6 +17954,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>45492.2916666667</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+      <c r="C662" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G662" t="s">
+        <v>134</v>
+      </c>
+      <c r="H662" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -17980,6 +17980,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>45495.2916666667</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G663" t="s">
+        <v>134</v>
+      </c>
+      <c r="H663" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18006,6 +18006,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>45496.2916666667</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0</v>
+      </c>
+      <c r="C664" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G664" t="s">
+        <v>134</v>
+      </c>
+      <c r="H664" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>45497.3576157407</v>
+      </c>
+      <c r="B665" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C665" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G665" t="s">
+        <v>134</v>
+      </c>
+      <c r="H665" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18034,7 +18034,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>45497.3576157407</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B665" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18058,6 +18058,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>45498.2916666667</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0</v>
+      </c>
+      <c r="C666" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G666" t="s">
+        <v>134</v>
+      </c>
+      <c r="H666" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18084,6 +18084,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G667" t="s">
+        <v>134</v>
+      </c>
+      <c r="H667" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -430,6 +430,9 @@
   <si>
     <t xml:space="preserve">1.39999997615814</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.26999998092651</t>
+  </si>
 </sst>
 </file>
 
@@ -18110,6 +18113,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>45502.2916666667</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G668" t="s">
+        <v>134</v>
+      </c>
+      <c r="H668" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>45503.3684837963</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C669" t="n">
+        <v>1.27999997138977</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1.26999998092651</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1.27999997138977</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1.26999998092651</v>
+      </c>
+      <c r="G669" t="s">
+        <v>139</v>
+      </c>
+      <c r="H669" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -433,6 +433,9 @@
   <si>
     <t xml:space="preserve">1.26999998092651</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.28999996185303</t>
+  </si>
 </sst>
 </file>
 
@@ -18141,7 +18144,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>45503.3684837963</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B669" t="n">
         <v>1500</v>
@@ -18162,6 +18165,32 @@
         <v>139</v>
       </c>
       <c r="H669" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>45504.4810648148</v>
+      </c>
+      <c r="B670" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C670" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1.27999997138977</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1.27999997138977</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="G670" t="s">
+        <v>140</v>
+      </c>
+      <c r="H670" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18170,7 +18170,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>45504.4810648148</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B670" t="n">
         <v>6000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18194,6 +18194,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+      <c r="C671" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="G671" t="s">
+        <v>140</v>
+      </c>
+      <c r="H671" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -436,6 +436,9 @@
   <si>
     <t xml:space="preserve">1.28999996185303</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.13999998569489</t>
+  </si>
 </sst>
 </file>
 
@@ -18220,6 +18223,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>45506.2916666667</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1.28999996185303</v>
+      </c>
+      <c r="G672" t="s">
+        <v>140</v>
+      </c>
+      <c r="H672" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>45509.5881828704</v>
+      </c>
+      <c r="B673" t="n">
+        <v>23000</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G673" t="s">
+        <v>141</v>
+      </c>
+      <c r="H673" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.28999996185303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13999998569489</t>
+    <t xml:space="preserve">1.12000000476837</t>
   </si>
 </sst>
 </file>
@@ -18251,10 +18251,10 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>45509.5881828704</v>
+        <v>45509.6276388889</v>
       </c>
       <c r="B673" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="C673" t="n">
         <v>1.25999999046326</v>
@@ -18266,7 +18266,7 @@
         <v>1.25999999046326</v>
       </c>
       <c r="F673" t="n">
-        <v>1.13999998569489</v>
+        <v>1.12000000476837</v>
       </c>
       <c r="G673" t="s">
         <v>141</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -439,6 +439,12 @@
   <si>
     <t xml:space="preserve">1.12000000476837</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.13999998569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14999997615814</t>
+  </si>
 </sst>
 </file>
 
@@ -18251,7 +18257,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>45509.6276388889</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B673" t="n">
         <v>25500</v>
@@ -18272,6 +18278,58 @@
         <v>141</v>
       </c>
       <c r="H673" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G674" t="s">
+        <v>142</v>
+      </c>
+      <c r="H674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>45511.6061921296</v>
+      </c>
+      <c r="B675" t="n">
+        <v>500</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="G675" t="s">
+        <v>143</v>
+      </c>
+      <c r="H675" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -445,6 +445,9 @@
   <si>
     <t xml:space="preserve">1.14999997615814</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.1599999666214</t>
+  </si>
 </sst>
 </file>
 
@@ -18309,7 +18312,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>45511.6061921296</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B675" t="n">
         <v>500</v>
@@ -18330,6 +18333,32 @@
         <v>143</v>
       </c>
       <c r="H675" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>45512.645787037</v>
+      </c>
+      <c r="B676" t="n">
+        <v>500</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G676" t="s">
+        <v>144</v>
+      </c>
+      <c r="H676" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18338,7 +18338,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>45512.645787037</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B676" t="n">
         <v>500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18362,6 +18362,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>45513.2916666667</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G677" t="s">
+        <v>144</v>
+      </c>
+      <c r="H677" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18388,6 +18388,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>45516.2916666667</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G678" t="s">
+        <v>144</v>
+      </c>
+      <c r="H678" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>45517.5870949074</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C679" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="G679" t="s">
+        <v>143</v>
+      </c>
+      <c r="H679" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18416,7 +18416,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>45517.5870949074</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B679" t="n">
         <v>1000</v>
@@ -18437,6 +18437,32 @@
         <v>143</v>
       </c>
       <c r="H679" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>45518.4468518519</v>
+      </c>
+      <c r="B680" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G680" t="s">
+        <v>142</v>
+      </c>
+      <c r="H680" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18442,7 +18442,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>45518.4468518519</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B680" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18466,6 +18466,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>45520.6084722222</v>
+      </c>
+      <c r="B681" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G681" t="s">
+        <v>142</v>
+      </c>
+      <c r="H681" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18468,7 +18468,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>45520.6084722222</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B681" t="n">
         <v>9500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18492,6 +18492,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>45523.2916666667</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G682" t="s">
+        <v>142</v>
+      </c>
+      <c r="H682" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>45524.3906944444</v>
+      </c>
+      <c r="B683" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G683" t="s">
+        <v>144</v>
+      </c>
+      <c r="H683" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18520,7 +18520,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>45524.3906944444</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B683" t="n">
         <v>2500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18544,6 +18544,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>45525.2916666667</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G684" t="s">
+        <v>144</v>
+      </c>
+      <c r="H684" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18570,6 +18570,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>45526.2916666667</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G685" t="s">
+        <v>144</v>
+      </c>
+      <c r="H685" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18596,6 +18596,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G686" t="s">
+        <v>144</v>
+      </c>
+      <c r="H686" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18622,6 +18622,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>45530.2916666667</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0</v>
+      </c>
+      <c r="C687" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G687" t="s">
+        <v>144</v>
+      </c>
+      <c r="H687" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18648,6 +18648,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>45531.2916666667</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G688" t="s">
+        <v>144</v>
+      </c>
+      <c r="H688" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18674,6 +18674,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>45532.2916666667</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G689" t="s">
+        <v>144</v>
+      </c>
+      <c r="H689" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>45533.4754050926</v>
+      </c>
+      <c r="B690" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="G690" t="s">
+        <v>141</v>
+      </c>
+      <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -448,13 +448,16 @@
   <si>
     <t xml:space="preserve">1.1599999666214</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.07000005245209</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -492,7 +495,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18702,7 +18705,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>45533.4754050926</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B690" t="n">
         <v>5000</v>
@@ -18723,6 +18726,32 @@
         <v>141</v>
       </c>
       <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>45534.5448032407</v>
+      </c>
+      <c r="B691" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="G691" t="s">
+        <v>145</v>
+      </c>
+      <c r="H691" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -451,6 +451,9 @@
   <si>
     <t xml:space="preserve">1.07000005245209</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.10000002384186</t>
+  </si>
 </sst>
 </file>
 
@@ -18731,7 +18734,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>45534.5448032407</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B691" t="n">
         <v>60000</v>
@@ -18752,6 +18755,32 @@
         <v>145</v>
       </c>
       <c r="H691" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>45537.6445486111</v>
+      </c>
+      <c r="B692" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C692" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1.0900000333786</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1.0900000333786</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G692" t="s">
+        <v>146</v>
+      </c>
+      <c r="H692" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18760,7 +18760,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>45537.6445486111</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B692" t="n">
         <v>12000</v>
@@ -18781,6 +18781,32 @@
         <v>146</v>
       </c>
       <c r="H692" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>45538.5521759259</v>
+      </c>
+      <c r="B693" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1.0900000333786</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G693" t="s">
+        <v>146</v>
+      </c>
+      <c r="H693" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18786,7 +18786,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>45538.5521759259</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B693" t="n">
         <v>10500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18810,6 +18810,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>45539.2916666667</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G694" t="s">
+        <v>146</v>
+      </c>
+      <c r="H694" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -454,6 +454,9 @@
   <si>
     <t xml:space="preserve">1.10000002384186</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.04999995231628</t>
+  </si>
 </sst>
 </file>
 
@@ -18836,6 +18839,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>45540.2916666667</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G695" t="s">
+        <v>146</v>
+      </c>
+      <c r="H695" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>45541.5153240741</v>
+      </c>
+      <c r="B696" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G696" t="s">
+        <v>147</v>
+      </c>
+      <c r="H696" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18867,7 +18867,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>45541.5153240741</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B696" t="n">
         <v>5000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18891,6 +18891,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45544.2916666667</v>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D697" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G697" t="s">
+        <v>147</v>
+      </c>
+      <c r="H697" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18917,6 +18917,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>45545.2916666667</v>
+      </c>
+      <c r="B698" t="n">
+        <v>0</v>
+      </c>
+      <c r="C698" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D698" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F698" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G698" t="s">
+        <v>147</v>
+      </c>
+      <c r="H698" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18943,6 +18943,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>45546.2916666667</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D699" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E699" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G699" t="s">
+        <v>147</v>
+      </c>
+      <c r="H699" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18969,6 +18969,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>45547.2916666667</v>
+      </c>
+      <c r="B700" t="n">
+        <v>0</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D700" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E700" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G700" t="s">
+        <v>147</v>
+      </c>
+      <c r="H700" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -18995,6 +18995,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45548.2916666667</v>
+      </c>
+      <c r="B701" t="n">
+        <v>0</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D701" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E701" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G701" t="s">
+        <v>147</v>
+      </c>
+      <c r="H701" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -457,6 +457,9 @@
   <si>
     <t xml:space="preserve">1.04999995231628</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.01999998092651</t>
+  </si>
 </sst>
 </file>
 
@@ -19021,6 +19024,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>45551.2916666667</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D702" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E702" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G702" t="s">
+        <v>147</v>
+      </c>
+      <c r="H702" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>45552.5940509259</v>
+      </c>
+      <c r="B703" t="n">
+        <v>500</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G703" t="s">
+        <v>148</v>
+      </c>
+      <c r="H703" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -460,6 +460,9 @@
   <si>
     <t xml:space="preserve">1.01999998092651</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.05999994277954</t>
+  </si>
 </sst>
 </file>
 
@@ -19052,7 +19055,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>45552.5940509259</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B703" t="n">
         <v>500</v>
@@ -19073,6 +19076,32 @@
         <v>148</v>
       </c>
       <c r="H703" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>45553.4548148148</v>
+      </c>
+      <c r="B704" t="n">
+        <v>500</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E704" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G704" t="s">
+        <v>149</v>
+      </c>
+      <c r="H704" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19081,7 +19081,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>45553.4548148148</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B704" t="n">
         <v>500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19105,6 +19105,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>45554.2916666667</v>
+      </c>
+      <c r="B705" t="n">
+        <v>0</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E705" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G705" t="s">
+        <v>149</v>
+      </c>
+      <c r="H705" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19131,6 +19131,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>45555.2916666667</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G706" t="s">
+        <v>149</v>
+      </c>
+      <c r="H706" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19157,6 +19157,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>45558.2916666667</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E707" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G707" t="s">
+        <v>149</v>
+      </c>
+      <c r="H707" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19183,6 +19183,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>45559.2916666667</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E708" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G708" t="s">
+        <v>149</v>
+      </c>
+      <c r="H708" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19209,6 +19209,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>45560.2916666667</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E709" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G709" t="s">
+        <v>149</v>
+      </c>
+      <c r="H709" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19235,6 +19235,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>45561.2916666667</v>
+      </c>
+      <c r="B710" t="n">
+        <v>0</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E710" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G710" t="s">
+        <v>149</v>
+      </c>
+      <c r="H710" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -463,6 +463,9 @@
   <si>
     <t xml:space="preserve">1.05999994277954</t>
   </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
 </sst>
 </file>
 
@@ -19261,6 +19264,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>45562.2916666667</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G711" t="s">
+        <v>149</v>
+      </c>
+      <c r="H711" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>45565.5195949074</v>
+      </c>
+      <c r="B712" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1</v>
+      </c>
+      <c r="G712" t="s">
+        <v>150</v>
+      </c>
+      <c r="H712" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -466,6 +466,9 @@
   <si>
     <t xml:space="preserve">1</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.959999978542328</t>
+  </si>
 </sst>
 </file>
 
@@ -19292,7 +19295,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>45565.5195949074</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B712" t="n">
         <v>5500</v>
@@ -19313,6 +19316,32 @@
         <v>150</v>
       </c>
       <c r="H712" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>45566.527974537</v>
+      </c>
+      <c r="B713" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C713" t="n">
+        <v>0.975000023841858</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.975000023841858</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.959999978542328</v>
+      </c>
+      <c r="G713" t="s">
+        <v>151</v>
+      </c>
+      <c r="H713" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19321,7 +19321,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>45566.527974537</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B713" t="n">
         <v>7000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -469,6 +469,9 @@
   <si>
     <t xml:space="preserve">0.959999978542328</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.930000007152557</t>
+  </si>
 </sst>
 </file>
 
@@ -19345,6 +19348,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>45567.2916666667</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.959999978542328</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0.959999978542328</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.959999978542328</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.959999978542328</v>
+      </c>
+      <c r="G714" t="s">
+        <v>151</v>
+      </c>
+      <c r="H714" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>45568.4993865741</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C715" t="n">
+        <v>0.930000007152557</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.930000007152557</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.930000007152557</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.930000007152557</v>
+      </c>
+      <c r="G715" t="s">
+        <v>152</v>
+      </c>
+      <c r="H715" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -472,6 +472,9 @@
   <si>
     <t xml:space="preserve">0.930000007152557</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.899999976158142</t>
+  </si>
 </sst>
 </file>
 
@@ -19376,7 +19379,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>45568.4993865741</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B715" t="n">
         <v>1000</v>
@@ -19397,6 +19400,32 @@
         <v>152</v>
       </c>
       <c r="H715" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>45569.4529513889</v>
+      </c>
+      <c r="B716" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C716" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.894999980926514</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G716" t="s">
+        <v>153</v>
+      </c>
+      <c r="H716" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19405,7 +19405,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>45569.4529513889</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B716" t="n">
         <v>5000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19429,6 +19429,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>45572.2916666667</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G717" t="s">
+        <v>153</v>
+      </c>
+      <c r="H717" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -475,6 +475,9 @@
   <si>
     <t xml:space="preserve">0.899999976158142</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.910000026226044</t>
+  </si>
 </sst>
 </file>
 
@@ -19455,6 +19458,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>45573.2916666667</v>
+      </c>
+      <c r="B718" t="n">
+        <v>0</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="G718" t="s">
+        <v>153</v>
+      </c>
+      <c r="H718" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>45574.6305324074</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C719" t="n">
+        <v>0.910000026226044</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0.910000026226044</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.910000026226044</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.910000026226044</v>
+      </c>
+      <c r="G719" t="s">
+        <v>154</v>
+      </c>
+      <c r="H719" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -478,6 +478,9 @@
   <si>
     <t xml:space="preserve">0.910000026226044</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.995000004768372</t>
+  </si>
 </sst>
 </file>
 
@@ -19486,7 +19489,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>45574.6305324074</v>
+        <v>45574.2916666667</v>
       </c>
       <c r="B719" t="n">
         <v>1000</v>
@@ -19507,6 +19510,32 @@
         <v>154</v>
       </c>
       <c r="H719" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>45575.5989351852</v>
+      </c>
+      <c r="B720" t="n">
+        <v>21500</v>
+      </c>
+      <c r="C720" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0.920000016689301</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.920000016689301</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.995000004768372</v>
+      </c>
+      <c r="G720" t="s">
+        <v>155</v>
+      </c>
+      <c r="H720" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -481,6 +481,9 @@
   <si>
     <t xml:space="preserve">0.995000004768372</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.980000019073486</t>
+  </si>
 </sst>
 </file>
 
@@ -19515,7 +19518,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>45575.5989351852</v>
+        <v>45575.2916666667</v>
       </c>
       <c r="B720" t="n">
         <v>21500</v>
@@ -19536,6 +19539,32 @@
         <v>155</v>
       </c>
       <c r="H720" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>45576.2981944444</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="E721" t="n">
+        <v>1</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="G721" t="s">
+        <v>156</v>
+      </c>
+      <c r="H721" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19544,7 +19544,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>45576.2981944444</v>
+        <v>45576.2916666667</v>
       </c>
       <c r="B721" t="n">
         <v>1000</v>
@@ -19565,6 +19565,32 @@
         <v>156</v>
       </c>
       <c r="H721" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>45579.5390277778</v>
+      </c>
+      <c r="B722" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1</v>
+      </c>
+      <c r="E722" t="n">
+        <v>1</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G722" t="s">
+        <v>148</v>
+      </c>
+      <c r="H722" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19570,7 +19570,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>45579.5390277778</v>
+        <v>45579.2916666667</v>
       </c>
       <c r="B722" t="n">
         <v>4500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -484,6 +484,9 @@
   <si>
     <t xml:space="preserve">0.980000019073486</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.03999996185303</t>
+  </si>
 </sst>
 </file>
 
@@ -19594,6 +19597,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>45580.2916666667</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G723" t="s">
+        <v>148</v>
+      </c>
+      <c r="H723" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>45581.3643402778</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E724" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G724" t="s">
+        <v>157</v>
+      </c>
+      <c r="H724" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19625,7 +19625,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>45581.3643402778</v>
+        <v>45581.2916666667</v>
       </c>
       <c r="B724" t="n">
         <v>3000</v>
@@ -19646,6 +19646,32 @@
         <v>157</v>
       </c>
       <c r="H724" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>45582.4090856481</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E725" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G725" t="s">
+        <v>149</v>
+      </c>
+      <c r="H725" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19651,7 +19651,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>45582.4090856481</v>
+        <v>45582.2916666667</v>
       </c>
       <c r="B725" t="n">
         <v>1500</v>
@@ -19672,6 +19672,32 @@
         <v>149</v>
       </c>
       <c r="H725" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>45583.5093171296</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="G726" t="s">
+        <v>157</v>
+      </c>
+      <c r="H726" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19677,7 +19677,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>45583.5093171296</v>
+        <v>45583.2916666667</v>
       </c>
       <c r="B726" t="n">
         <v>4000</v>
@@ -19698,6 +19698,32 @@
         <v>157</v>
       </c>
       <c r="H726" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>45586.291712963</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E727" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G727" t="s">
+        <v>147</v>
+      </c>
+      <c r="H727" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19703,7 +19703,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>45586.291712963</v>
+        <v>45586.2916666667</v>
       </c>
       <c r="B727" t="n">
         <v>1000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19727,6 +19727,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>45588.5311574074</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="G728" t="s">
+        <v>145</v>
+      </c>
+      <c r="H728" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -487,6 +487,9 @@
   <si>
     <t xml:space="preserve">1.03999996185303</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.08000004291534</t>
+  </si>
 </sst>
 </file>
 
@@ -19729,27 +19732,79 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>45588.5311574074</v>
+        <v>45587.2916666667</v>
       </c>
       <c r="B728" t="n">
+        <v>0</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G728" t="s">
+        <v>147</v>
+      </c>
+      <c r="H728" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B729" t="n">
         <v>2000</v>
       </c>
-      <c r="C728" t="n">
+      <c r="C729" t="n">
         <v>1.07000005245209</v>
       </c>
-      <c r="D728" t="n">
+      <c r="D729" t="n">
         <v>1.07000005245209</v>
       </c>
-      <c r="E728" t="n">
+      <c r="E729" t="n">
         <v>1.07000005245209</v>
       </c>
-      <c r="F728" t="n">
+      <c r="F729" t="n">
         <v>1.07000005245209</v>
       </c>
-      <c r="G728" t="s">
+      <c r="G729" t="s">
         <v>145</v>
       </c>
-      <c r="H728" t="s">
+      <c r="H729" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>45589.426875</v>
+      </c>
+      <c r="B730" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="G730" t="s">
+        <v>158</v>
+      </c>
+      <c r="H730" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19784,7 +19784,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>45589.426875</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B730" t="n">
         <v>3000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19808,6 +19808,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>45590.2916666667</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="E731" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="G731" t="s">
+        <v>158</v>
+      </c>
+      <c r="H731" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19834,6 +19834,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>45593.3333333333</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="G732" t="s">
+        <v>158</v>
+      </c>
+      <c r="H732" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>45594.6678935185</v>
+      </c>
+      <c r="B733" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1.0900000333786</v>
+      </c>
+      <c r="E733" t="n">
+        <v>1.0900000333786</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G733" t="s">
+        <v>146</v>
+      </c>
+      <c r="H733" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19862,7 +19862,7 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
-        <v>45594.6678935185</v>
+        <v>45594.3333333333</v>
       </c>
       <c r="B733" t="n">
         <v>3500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19886,6 +19886,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>45595.3333333333</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E734" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G734" t="s">
+        <v>146</v>
+      </c>
+      <c r="H734" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19912,6 +19912,84 @@
         <v>9</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>45596.3333333333</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G735" t="s">
+        <v>146</v>
+      </c>
+      <c r="H735" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B736" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="G736" t="s">
+        <v>145</v>
+      </c>
+      <c r="H736" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>45600.6327662037</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E737" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G737" t="s">
+        <v>147</v>
+      </c>
+      <c r="H737" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19966,7 +19966,7 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
-        <v>45600.6327662037</v>
+        <v>45600.3333333333</v>
       </c>
       <c r="B737" t="n">
         <v>1500</v>
@@ -19987,6 +19987,32 @@
         <v>147</v>
       </c>
       <c r="H737" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>45601.6412731481</v>
+      </c>
+      <c r="B738" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="G738" t="s">
+        <v>158</v>
+      </c>
+      <c r="H738" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -19992,7 +19992,7 @@
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
-        <v>45601.6412731481</v>
+        <v>45601.3333333333</v>
       </c>
       <c r="B738" t="n">
         <v>6000</v>
@@ -20013,6 +20013,58 @@
         <v>158</v>
       </c>
       <c r="H738" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>45602.3333333333</v>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="E739" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1.08000004291534</v>
+      </c>
+      <c r="G739" t="s">
+        <v>158</v>
+      </c>
+      <c r="H739" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>45603.5247337963</v>
+      </c>
+      <c r="B740" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E740" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G740" t="s">
+        <v>147</v>
+      </c>
+      <c r="H740" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20044,7 +20044,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>45603.5247337963</v>
+        <v>45603.3333333333</v>
       </c>
       <c r="B740" t="n">
         <v>2500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -490,6 +490,9 @@
   <si>
     <t xml:space="preserve">1.08000004291534</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.02999997138977</t>
+  </si>
 </sst>
 </file>
 
@@ -20068,6 +20071,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>45604.3333333333</v>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="E741" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="G741" t="s">
+        <v>147</v>
+      </c>
+      <c r="H741" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>45607.4133101852</v>
+      </c>
+      <c r="B742" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="G742" t="s">
+        <v>159</v>
+      </c>
+      <c r="H742" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20099,7 +20099,7 @@
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
-        <v>45607.4133101852</v>
+        <v>45607.3333333333</v>
       </c>
       <c r="B742" t="n">
         <v>2500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20123,6 +20123,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>45608.3333333333</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="E743" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1.02999997138977</v>
+      </c>
+      <c r="G743" t="s">
+        <v>159</v>
+      </c>
+      <c r="H743" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>45609.4323263889</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E744" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G744" t="s">
+        <v>148</v>
+      </c>
+      <c r="H744" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20151,7 +20151,7 @@
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
-        <v>45609.4323263889</v>
+        <v>45609.3333333333</v>
       </c>
       <c r="B744" t="n">
         <v>1000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20175,6 +20175,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>45610.3333333333</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1.01999998092651</v>
+      </c>
+      <c r="G745" t="s">
+        <v>148</v>
+      </c>
+      <c r="H745" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>45611.3715162037</v>
+      </c>
+      <c r="B746" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1.03999996185303</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="G746" t="s">
+        <v>149</v>
+      </c>
+      <c r="H746" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -493,6 +493,9 @@
   <si>
     <t xml:space="preserve">1.02999997138977</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.24000000953674</t>
+  </si>
 </sst>
 </file>
 
@@ -20203,7 +20206,7 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
-        <v>45611.3715162037</v>
+        <v>45611.3333333333</v>
       </c>
       <c r="B746" t="n">
         <v>6000</v>
@@ -20224,6 +20227,32 @@
         <v>149</v>
       </c>
       <c r="H746" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>45614.5963425926</v>
+      </c>
+      <c r="B747" t="n">
+        <v>39500</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1.24000000953674</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1.05999994277954</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1.07000005245209</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1.24000000953674</v>
+      </c>
+      <c r="G747" t="s">
+        <v>160</v>
+      </c>
+      <c r="H747" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20232,7 +20232,7 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
-        <v>45614.5963425926</v>
+        <v>45614.3333333333</v>
       </c>
       <c r="B747" t="n">
         <v>39500</v>
@@ -20253,6 +20253,32 @@
         <v>160</v>
       </c>
       <c r="H747" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>45615.6913078704</v>
+      </c>
+      <c r="B748" t="n">
+        <v>26500</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1.48000001907349</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1.47000002861023</v>
+      </c>
+      <c r="G748" t="s">
+        <v>137</v>
+      </c>
+      <c r="H748" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20258,7 +20258,7 @@
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
-        <v>45615.6913078704</v>
+        <v>45615.3333333333</v>
       </c>
       <c r="B748" t="n">
         <v>26500</v>
@@ -20279,6 +20279,32 @@
         <v>137</v>
       </c>
       <c r="H748" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>45616.6133564815</v>
+      </c>
+      <c r="B749" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1.57000005245209</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1.38999998569489</v>
+      </c>
+      <c r="E749" t="n">
+        <v>1.57000005245209</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G749" t="s">
+        <v>138</v>
+      </c>
+      <c r="H749" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20284,7 +20284,7 @@
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
-        <v>45616.6133564815</v>
+        <v>45616.3333333333</v>
       </c>
       <c r="B749" t="n">
         <v>33000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -496,6 +496,9 @@
   <si>
     <t xml:space="preserve">1.24000000953674</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.35000002384186</t>
+  </si>
 </sst>
 </file>
 
@@ -20308,6 +20311,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>45617.3333333333</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="G750" t="s">
+        <v>138</v>
+      </c>
+      <c r="H750" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>45618.6575694444</v>
+      </c>
+      <c r="B751" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="E751" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1.35000002384186</v>
+      </c>
+      <c r="G751" t="s">
+        <v>161</v>
+      </c>
+      <c r="H751" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20339,7 +20339,7 @@
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
-        <v>45618.6575694444</v>
+        <v>45618.3333333333</v>
       </c>
       <c r="B751" t="n">
         <v>3500</v>
@@ -20360,6 +20360,32 @@
         <v>161</v>
       </c>
       <c r="H751" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>45621.3784722222</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E752" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G752" t="s">
+        <v>133</v>
+      </c>
+      <c r="H752" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20365,7 +20365,7 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
-        <v>45621.3784722222</v>
+        <v>45621.3333333333</v>
       </c>
       <c r="B752" t="n">
         <v>1000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20389,6 +20389,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>45622.3333333333</v>
+      </c>
+      <c r="B753" t="n">
+        <v>0</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G753" t="s">
+        <v>133</v>
+      </c>
+      <c r="H753" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>45623.6203587963</v>
+      </c>
+      <c r="B754" t="n">
+        <v>500</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="E754" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1.32000005245209</v>
+      </c>
+      <c r="G754" t="s">
+        <v>133</v>
+      </c>
+      <c r="H754" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20417,7 +20417,7 @@
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
-        <v>45623.6203587963</v>
+        <v>45623.3333333333</v>
       </c>
       <c r="B754" t="n">
         <v>500</v>
@@ -20438,6 +20438,32 @@
         <v>133</v>
       </c>
       <c r="H754" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>45624.415162037</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="E755" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="G755" t="s">
+        <v>134</v>
+      </c>
+      <c r="H755" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20443,7 +20443,7 @@
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
-        <v>45624.415162037</v>
+        <v>45624.3333333333</v>
       </c>
       <c r="B755" t="n">
         <v>1000</v>
@@ -20464,6 +20464,32 @@
         <v>134</v>
       </c>
       <c r="H755" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>45625.4206828704</v>
+      </c>
+      <c r="B756" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1.26999998092651</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1.26999998092651</v>
+      </c>
+      <c r="G756" t="s">
+        <v>139</v>
+      </c>
+      <c r="H756" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -499,6 +499,9 @@
   <si>
     <t xml:space="preserve">1.35000002384186</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.25999999046326</t>
+  </si>
 </sst>
 </file>
 
@@ -20469,7 +20472,7 @@
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
-        <v>45625.4206828704</v>
+        <v>45625.3333333333</v>
       </c>
       <c r="B756" t="n">
         <v>6000</v>
@@ -20490,6 +20493,32 @@
         <v>139</v>
       </c>
       <c r="H756" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>45628.6803356481</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G757" t="s">
+        <v>162</v>
+      </c>
+      <c r="H757" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20498,7 +20498,7 @@
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
-        <v>45628.6803356481</v>
+        <v>45628.3333333333</v>
       </c>
       <c r="B757" t="n">
         <v>1500</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20522,6 +20522,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>45629.3333333333</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E758" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G758" t="s">
+        <v>162</v>
+      </c>
+      <c r="H758" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20548,6 +20548,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>45630.3333333333</v>
+      </c>
+      <c r="B759" t="n">
+        <v>0</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G759" t="s">
+        <v>162</v>
+      </c>
+      <c r="H759" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20574,6 +20574,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>45631.3333333333</v>
+      </c>
+      <c r="B760" t="n">
+        <v>0</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G760" t="s">
+        <v>162</v>
+      </c>
+      <c r="H760" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20600,6 +20600,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>45632.3333333333</v>
+      </c>
+      <c r="B761" t="n">
+        <v>0</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E761" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G761" t="s">
+        <v>162</v>
+      </c>
+      <c r="H761" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>45635.5959259259</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D762" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E762" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G762" t="s">
+        <v>162</v>
+      </c>
+      <c r="H762" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20628,7 +20628,7 @@
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
-        <v>45635.5959259259</v>
+        <v>45635.3333333333</v>
       </c>
       <c r="B762" t="n">
         <v>1000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20652,6 +20652,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>45636.3333333333</v>
+      </c>
+      <c r="B763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D763" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E763" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F763" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G763" t="s">
+        <v>162</v>
+      </c>
+      <c r="H763" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20678,6 +20678,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>45637.3333333333</v>
+      </c>
+      <c r="B764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D764" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E764" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G764" t="s">
+        <v>162</v>
+      </c>
+      <c r="H764" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20704,6 +20704,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>45638.3333333333</v>
+      </c>
+      <c r="B765" t="n">
+        <v>0</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E765" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F765" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G765" t="s">
+        <v>162</v>
+      </c>
+      <c r="H765" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -502,6 +502,9 @@
   <si>
     <t xml:space="preserve">1.25999999046326</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
 </sst>
 </file>
 
@@ -20730,6 +20733,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>45639.3333333333</v>
+      </c>
+      <c r="B766" t="n">
+        <v>0</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="D766" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="E766" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1.25999999046326</v>
+      </c>
+      <c r="G766" t="s">
+        <v>162</v>
+      </c>
+      <c r="H766" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>45642.4520949074</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E767" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G767" t="s">
+        <v>163</v>
+      </c>
+      <c r="H767" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20761,7 +20761,7 @@
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
-        <v>45642.4520949074</v>
+        <v>45642.3333333333</v>
       </c>
       <c r="B767" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -505,6 +505,9 @@
   <si>
     <t xml:space="preserve">1.25</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.21000003814697</t>
+  </si>
 </sst>
 </file>
 
@@ -20785,6 +20788,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>45643.3333333333</v>
+      </c>
+      <c r="B768" t="n">
+        <v>0</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D768" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E768" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F768" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G768" t="s">
+        <v>163</v>
+      </c>
+      <c r="H768" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>45644.3903125</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D769" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E769" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G769" t="s">
+        <v>164</v>
+      </c>
+      <c r="H769" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20816,7 +20816,7 @@
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
-        <v>45644.3903125</v>
+        <v>45644.3333333333</v>
       </c>
       <c r="B769" t="n">
         <v>2000</v>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20840,6 +20840,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>45645.3333333333</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E770" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G770" t="s">
+        <v>164</v>
+      </c>
+      <c r="H770" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20866,6 +20866,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>45646.3333333333</v>
+      </c>
+      <c r="B771" t="n">
+        <v>0</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D771" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E771" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G771" t="s">
+        <v>164</v>
+      </c>
+      <c r="H771" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20892,6 +20892,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>45649.3333333333</v>
+      </c>
+      <c r="B772" t="n">
+        <v>0</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D772" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E772" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F772" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G772" t="s">
+        <v>164</v>
+      </c>
+      <c r="H772" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20918,6 +20918,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>45653.3333333333</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D773" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E773" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G773" t="s">
+        <v>164</v>
+      </c>
+      <c r="H773" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -20944,6 +20944,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>45656.3333333333</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="D774" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="E774" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="F774" t="n">
+        <v>1.21000003814697</v>
+      </c>
+      <c r="G774" t="s">
+        <v>164</v>
+      </c>
+      <c r="H774" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SIF.MI.xlsx
+++ b/data/SIF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -508,6 +508,9 @@
   <si>
     <t xml:space="preserve">1.21000003814697</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.19000005722046</t>
+  </si>
 </sst>
 </file>
 
@@ -20970,6 +20973,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>45659.3333333333</v>
+      </c>
+      <c r="B775" t="n">
+        <v>500</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1.19000005722046</v>
+      </c>
+      <c r="D775" t="n">
+        <v>1.19000005722046</v>
+      </c>
+      <c r="E775" t="n">
+        <v>1.19000005722046</v>
+      </c>
+      <c r="F775" t="n">
+        <v>1.19000005722046</v>
+      </c>
+      <c r="G775" t="s">
+        <v>165</v>
+      </c>
+      <c r="H775" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
